--- a/src/test/test_data/QuoteCreation.xlsx
+++ b/src/test/test_data/QuoteCreation.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astojanovic.ITHQ\Desktop\REPO\UWREFF\PURE_DEMO\src\test\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astojanovic\IdeaProjects\core6\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6744FA77-5AA8-40C5-837C-653EABD91A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="InitiateQuote" sheetId="2" r:id="rId1"/>
-    <sheet name="HOPolicyCoverPage" sheetId="3" r:id="rId2"/>
-    <sheet name="BasicLocationCoverage" sheetId="4" r:id="rId3"/>
-    <sheet name="HOEditAttachmentPage" sheetId="6" r:id="rId4"/>
-    <sheet name="AdditionalLocations" sheetId="5" r:id="rId5"/>
+    <sheet name="QuoteCreationDetails" sheetId="3" r:id="rId2"/>
+    <sheet name="RequiredFormsDetails" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>ExWind</t>
   </si>
@@ -154,9 +151,6 @@
     <t>5%</t>
   </si>
   <si>
-    <t>300000</t>
-  </si>
-  <si>
     <t>YearBuilt</t>
   </si>
   <si>
@@ -313,15 +307,6 @@
     <t>LicensedProducerSTG</t>
   </si>
   <si>
-    <t>AddressIndexNumber</t>
-  </si>
-  <si>
-    <t>AddressLine</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
     <t>300,000</t>
   </si>
   <si>
@@ -355,14 +340,80 @@
     <t>File</t>
   </si>
   <si>
-    <t>C:\Users\astojanovic.ITHQ\Desktop\expected.pdf</t>
+    <t>ExistingAgencyClient</t>
+  </si>
+  <si>
+    <t>CompanyCancelledOrRefused</t>
+  </si>
+  <si>
+    <t>CoverageNonRenewedOrDeclined</t>
+  </si>
+  <si>
+    <t>AppraisalComment</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ContactEmail</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>C:\Users\astojanovic\Desktop\test.pdf</t>
+  </si>
+  <si>
+    <t>InspectionName</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>InspectionDate</t>
+  </si>
+  <si>
+    <t>01/01/2001</t>
+  </si>
+  <si>
+    <t>OptOutOfDelivery</t>
+  </si>
+  <si>
+    <t>DeliveryOptions</t>
+  </si>
+  <si>
+    <t>PrintByPure</t>
+  </si>
+  <si>
+    <t>MemberEmail</t>
+  </si>
+  <si>
+    <t>BrokerEmail</t>
+  </si>
+  <si>
+    <t>member@email.com</t>
+  </si>
+  <si>
+    <t>broker@email.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +425,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,10 +503,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,8 +519,12 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,11 +802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71AAB18-6FD4-4690-8B5A-F853B42A7865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +858,7 @@
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
@@ -813,7 +877,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -821,7 +885,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -914,55 +978,55 @@
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
@@ -975,88 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3593D-452B-42CE-AC43-0CF0B7FFAB80}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7037809B-2A47-4893-9B62-5C99D40AAF39}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,216 +1063,355 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>71</v>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B38" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB00BC3-F5AC-425B-95DA-5C8FB0529416}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,23 +1422,23 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -1320,7 +1446,7 @@
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -1328,138 +1454,34 @@
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56CB084-4EFF-4CE8-89C1-25A4F8033F9F}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>